--- a/test_updated_with_match0105.xlsx
+++ b/test_updated_with_match0105.xlsx
@@ -12769,11 +12769,7 @@
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
           <t>Error</t>
